--- a/RA/Nani_2022/T_19/T19_G4_5_Coding_explanation.xlsx
+++ b/RA/Nani_2022/T_19/T19_G4_5_Coding_explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Dropbox (UiO)\Nani\2022\T_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC4F1C-49CD-4272-88E5-90F6B352455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB6DCB-3C10-4ADC-8129-05B2627539DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" activeTab="2" xr2:uid="{6A18A5C5-ACE7-445C-877F-08C8BDB6A624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" activeTab="1" xr2:uid="{6A18A5C5-ACE7-445C-877F-08C8BDB6A624}"/>
   </bookViews>
   <sheets>
     <sheet name="1_G4_PV" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1813">
   <si>
     <t>IDCNTRY</t>
   </si>
@@ -5250,9 +5250,6 @@
     <t>Access to learning management system</t>
   </si>
   <si>
-    <t>(1=0) (2=1) (3=1) (4=3) (5=4)</t>
-  </si>
-  <si>
     <t>(1=3) (2=2) (3=1) (4=0)</t>
   </si>
   <si>
@@ -5425,9 +5422,6 @@
   </si>
   <si>
     <t>IDXseasC</t>
-  </si>
-  <si>
-    <t>(0=3) (1=2) (2=1) (3=0)</t>
   </si>
   <si>
     <t>TOTWGT</t>
@@ -5521,7 +5515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5540,6 +5534,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5553,7 +5553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5592,6 +5592,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5921,7 +5930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A2:XFD23"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7481,14 +7490,14 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="12" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="13">
@@ -7500,14 +7509,14 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="13">
@@ -7519,14 +7528,14 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="12" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="13">
@@ -7538,14 +7547,14 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="12" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="13">
@@ -7557,14 +7566,14 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="12" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="13">
@@ -7789,9 +7798,9 @@
   </sheetPr>
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7941,7 +7950,7 @@
         <v>886</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F8" s="2">
         <v>9</v>
@@ -8185,7 +8194,7 @@
         <v>338</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>1481</v>
@@ -8208,7 +8217,7 @@
         <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>1482</v>
@@ -8286,7 +8295,7 @@
         <v>898</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F23" s="2">
         <v>9</v>
@@ -8309,7 +8318,7 @@
         <v>899</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F24" s="2">
         <v>9</v>
@@ -8332,7 +8341,7 @@
         <v>900</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F25" s="2">
         <v>9</v>
@@ -8355,7 +8364,7 @@
         <v>901</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F26" s="2">
         <v>9</v>
@@ -8378,7 +8387,7 @@
         <v>902</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F27" s="2">
         <v>9</v>
@@ -8401,7 +8410,7 @@
         <v>903</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F28" s="2">
         <v>9</v>
@@ -8424,7 +8433,7 @@
         <v>904</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F29" s="2">
         <v>9</v>
@@ -8447,7 +8456,7 @@
         <v>905</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F30" s="2">
         <v>9</v>
@@ -8470,7 +8479,7 @@
         <v>906</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F31" s="2">
         <v>9</v>
@@ -8493,7 +8502,7 @@
         <v>907</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F32" s="2">
         <v>9</v>
@@ -8516,7 +8525,7 @@
         <v>908</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F33" s="2">
         <v>9</v>
@@ -8539,7 +8548,7 @@
         <v>909</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F34" s="2">
         <v>9</v>
@@ -8556,13 +8565,13 @@
         <v>1496</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>910</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F35" s="2">
         <v>9</v>
@@ -8585,7 +8594,7 @@
         <v>911</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
@@ -8602,13 +8611,13 @@
         <v>1496</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>912</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F37" s="2">
         <v>9</v>
@@ -8625,13 +8634,13 @@
         <v>1496</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>913</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F38" s="2">
         <v>9</v>
@@ -8654,7 +8663,7 @@
         <v>914</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F39" s="2">
         <v>9</v>
@@ -8677,7 +8686,7 @@
         <v>915</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F40" s="2">
         <v>9</v>
@@ -8700,7 +8709,7 @@
         <v>916</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F41" s="2">
         <v>9</v>
@@ -8723,7 +8732,7 @@
         <v>917</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F42" s="2">
         <v>9</v>
@@ -8746,7 +8755,7 @@
         <v>918</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F43" s="2">
         <v>9</v>
@@ -8769,7 +8778,7 @@
         <v>919</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F44" s="2">
         <v>9</v>
@@ -8792,7 +8801,7 @@
         <v>920</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F45" s="2">
         <v>9</v>
@@ -8815,7 +8824,7 @@
         <v>921</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F46" s="2">
         <v>9</v>
@@ -8838,7 +8847,7 @@
         <v>922</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F47" s="2">
         <v>9</v>
@@ -8861,7 +8870,7 @@
         <v>923</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F48" s="2">
         <v>9</v>
@@ -8884,7 +8893,7 @@
         <v>924</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F49" s="2">
         <v>9</v>
@@ -8907,7 +8916,7 @@
         <v>925</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F50" s="2">
         <v>9</v>
@@ -8916,141 +8925,141 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="15" t="s">
         <v>1515</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F51" s="2">
-        <v>9</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="E51" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F51" s="16">
+        <v>9</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="15" t="s">
         <v>1516</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F52" s="2">
-        <v>9</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="E52" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F52" s="16">
+        <v>9</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="15" t="s">
         <v>1517</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F53" s="2">
-        <v>9</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="E53" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F53" s="16">
+        <v>9</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="15" t="s">
         <v>1518</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F54" s="2">
-        <v>9</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="E54" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F54" s="16">
+        <v>9</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="15" t="s">
         <v>1519</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F55" s="2">
-        <v>9</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="E55" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F55" s="16">
+        <v>9</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="15" t="s">
         <v>1520</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F56" s="2">
-        <v>9</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="E56" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F56" s="16">
+        <v>9</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>1733</v>
       </c>
     </row>
@@ -9067,8 +9076,8 @@
       <c r="D57" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>1797</v>
+      <c r="E57" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="F57" s="2">
         <v>9</v>
@@ -9090,8 +9099,8 @@
       <c r="D58" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>1797</v>
+      <c r="E58" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="F58" s="2">
         <v>9</v>
@@ -9113,8 +9122,8 @@
       <c r="D59" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>1797</v>
+      <c r="E59" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="F59" s="2">
         <v>9</v>
@@ -9136,8 +9145,8 @@
       <c r="D60" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>1797</v>
+      <c r="E60" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="F60" s="2">
         <v>9</v>
@@ -9159,8 +9168,8 @@
       <c r="D61" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>1797</v>
+      <c r="E61" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="F61" s="2">
         <v>9</v>
@@ -9182,8 +9191,8 @@
       <c r="D62" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>1797</v>
+      <c r="E62" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="F62" s="2">
         <v>9</v>
@@ -9206,7 +9215,7 @@
         <v>938</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F63" s="2">
         <v>9</v>
@@ -9223,13 +9232,13 @@
         <v>1528</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>939</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F64" s="2">
         <v>9</v>
@@ -9252,7 +9261,7 @@
         <v>940</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F65" s="2">
         <v>9</v>
@@ -9275,7 +9284,7 @@
         <v>941</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F66" s="2">
         <v>9</v>
@@ -9298,7 +9307,7 @@
         <v>942</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F67" s="2">
         <v>9</v>
@@ -9321,7 +9330,7 @@
         <v>943</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F68" s="2">
         <v>9</v>
@@ -9344,7 +9353,7 @@
         <v>944</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F69" s="2">
         <v>9</v>
@@ -9361,13 +9370,13 @@
         <v>1528</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>945</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F70" s="2">
         <v>9</v>
@@ -9390,7 +9399,7 @@
         <v>946</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F71" s="2">
         <v>9</v>
@@ -9413,7 +9422,7 @@
         <v>947</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F72" s="2">
         <v>9</v>
@@ -9436,7 +9445,7 @@
         <v>948</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F73" s="2">
         <v>9</v>
@@ -9459,7 +9468,7 @@
         <v>949</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F74" s="2">
         <v>9</v>
@@ -9482,7 +9491,7 @@
         <v>950</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F75" s="2">
         <v>9</v>
@@ -9505,7 +9514,7 @@
         <v>951</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F76" s="2">
         <v>9</v>
@@ -9528,7 +9537,7 @@
         <v>952</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F77" s="2">
         <v>9</v>
@@ -9551,7 +9560,7 @@
         <v>953</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F78" s="2">
         <v>9</v>
@@ -9574,7 +9583,7 @@
         <v>954</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F79" s="2">
         <v>9</v>
@@ -9597,7 +9606,7 @@
         <v>955</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F80" s="2">
         <v>9</v>
@@ -9620,7 +9629,7 @@
         <v>956</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F81" s="2">
         <v>9</v>
@@ -9643,7 +9652,7 @@
         <v>957</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F82" s="2">
         <v>9</v>
@@ -9666,7 +9675,7 @@
         <v>958</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F83" s="2">
         <v>9</v>
@@ -9689,7 +9698,7 @@
         <v>959</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F84" s="2">
         <v>9</v>
@@ -9712,7 +9721,7 @@
         <v>960</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F85" s="2">
         <v>9</v>
@@ -9735,7 +9744,7 @@
         <v>961</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F86" s="2">
         <v>9</v>
@@ -9758,7 +9767,7 @@
         <v>962</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F87" s="2">
         <v>9</v>
@@ -9781,7 +9790,7 @@
         <v>963</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F88" s="2">
         <v>9</v>
@@ -9804,7 +9813,7 @@
         <v>964</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F89" s="2">
         <v>9</v>
@@ -9827,7 +9836,7 @@
         <v>965</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F90" s="2">
         <v>9</v>
@@ -9850,7 +9859,7 @@
         <v>966</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F91" s="2">
         <v>9</v>
@@ -9873,7 +9882,7 @@
         <v>967</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F92" s="2">
         <v>9</v>
@@ -9896,7 +9905,7 @@
         <v>968</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F93" s="2">
         <v>9</v>
@@ -9919,7 +9928,7 @@
         <v>969</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F94" s="2">
         <v>9</v>
@@ -9942,7 +9951,7 @@
         <v>970</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F95" s="2">
         <v>9</v>
@@ -10103,7 +10112,7 @@
         <v>977</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F102" s="2">
         <v>9</v>
@@ -10126,7 +10135,7 @@
         <v>978</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F103" s="2">
         <v>9</v>
@@ -10149,7 +10158,7 @@
         <v>979</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F104" s="2">
         <v>9</v>
@@ -10172,7 +10181,7 @@
         <v>980</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F105" s="2">
         <v>9</v>
@@ -10195,7 +10204,7 @@
         <v>981</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F106" s="2">
         <v>9</v>
@@ -10218,7 +10227,7 @@
         <v>982</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F107" s="2">
         <v>9</v>
@@ -10241,7 +10250,7 @@
         <v>983</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F108" s="2">
         <v>9</v>
@@ -10264,7 +10273,7 @@
         <v>984</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F109" s="2">
         <v>9</v>
@@ -10287,7 +10296,7 @@
         <v>985</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F110" s="2">
         <v>9</v>
@@ -10310,7 +10319,7 @@
         <v>986</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F111" s="2">
         <v>9</v>
@@ -10333,7 +10342,7 @@
         <v>987</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F112" s="2">
         <v>9</v>
@@ -10460,7 +10469,7 @@
         <v>1466</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>992</v>
@@ -10509,7 +10518,7 @@
         <v>994</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F122" s="2">
         <v>9</v>
@@ -10520,10 +10529,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F123" s="2">
         <v>999999</v>
@@ -10534,10 +10543,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F124" s="2">
         <v>999999</v>
@@ -10548,10 +10557,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F125" s="2">
         <v>999999</v>
@@ -10708,7 +10717,7 @@
         <v>1002</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F135" s="2">
         <v>9</v>
@@ -10811,7 +10820,7 @@
         <v>1703</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>1007</v>
@@ -10837,7 +10846,7 @@
         <v>1008</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F141" s="2">
         <v>9</v>
@@ -11112,7 +11121,7 @@
         <v>1709</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>1021</v>
@@ -11132,7 +11141,7 @@
         <v>1709</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>1022</v>
@@ -11227,9 +11236,9 @@
   </sheetPr>
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228:XFD228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11924,13 +11933,13 @@
         <v>1134</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>675</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F38" s="2">
         <v>9</v>
@@ -11947,13 +11956,13 @@
         <v>1134</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>676</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F39" s="2">
         <v>9</v>
@@ -11970,13 +11979,13 @@
         <v>1134</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F40" s="2">
         <v>9</v>
@@ -11993,13 +12002,13 @@
         <v>1134</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>678</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F41" s="2">
         <v>9</v>
@@ -12016,13 +12025,13 @@
         <v>1134</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>679</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F42" s="2">
         <v>9</v>
@@ -12039,13 +12048,13 @@
         <v>1134</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>680</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F43" s="2">
         <v>9</v>
@@ -12062,13 +12071,13 @@
         <v>1134</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>681</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F44" s="2">
         <v>9</v>
@@ -12085,13 +12094,13 @@
         <v>1134</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>682</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F45" s="2">
         <v>9</v>
@@ -12108,13 +12117,13 @@
         <v>1134</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F46" s="2">
         <v>9</v>
@@ -12131,13 +12140,13 @@
         <v>1134</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>684</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F47" s="2">
         <v>9</v>
@@ -12154,13 +12163,13 @@
         <v>1134</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>685</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F48" s="2">
         <v>9</v>
@@ -12177,13 +12186,13 @@
         <v>1134</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>686</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F49" s="2">
         <v>9</v>
@@ -12206,7 +12215,7 @@
         <v>687</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F50" s="2">
         <v>9</v>
@@ -12229,7 +12238,7 @@
         <v>688</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F51" s="2">
         <v>9</v>
@@ -12252,7 +12261,7 @@
         <v>689</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F52" s="2">
         <v>9</v>
@@ -12275,7 +12284,7 @@
         <v>690</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F53" s="2">
         <v>9</v>
@@ -12298,7 +12307,7 @@
         <v>691</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F54" s="2">
         <v>9</v>
@@ -12321,7 +12330,7 @@
         <v>692</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F55" s="2">
         <v>9</v>
@@ -12344,7 +12353,7 @@
         <v>693</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F56" s="2">
         <v>9</v>
@@ -12367,7 +12376,7 @@
         <v>694</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F57" s="2">
         <v>9</v>
@@ -12390,7 +12399,7 @@
         <v>695</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F58" s="2">
         <v>9</v>
@@ -12413,7 +12422,7 @@
         <v>696</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F59" s="2">
         <v>9</v>
@@ -12436,7 +12445,7 @@
         <v>697</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F60" s="2">
         <v>9</v>
@@ -12459,7 +12468,7 @@
         <v>698</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F61" s="2">
         <v>9</v>
@@ -12482,7 +12491,7 @@
         <v>699</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F62" s="2">
         <v>9</v>
@@ -12505,7 +12514,7 @@
         <v>700</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F63" s="2">
         <v>9</v>
@@ -12528,7 +12537,7 @@
         <v>701</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F64" s="2">
         <v>9</v>
@@ -12551,7 +12560,7 @@
         <v>702</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F65" s="2">
         <v>9</v>
@@ -12574,7 +12583,7 @@
         <v>703</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F66" s="2">
         <v>9</v>
@@ -12597,7 +12606,7 @@
         <v>704</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F67" s="2">
         <v>9</v>
@@ -12620,7 +12629,7 @@
         <v>705</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F68" s="2">
         <v>9</v>
@@ -12643,7 +12652,7 @@
         <v>706</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F69" s="2">
         <v>9</v>
@@ -12666,7 +12675,7 @@
         <v>707</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F70" s="2">
         <v>9</v>
@@ -12749,7 +12758,7 @@
         <v>711</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F74" s="2">
         <v>9</v>
@@ -12772,7 +12781,7 @@
         <v>712</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F75" s="2">
         <v>9</v>
@@ -12795,7 +12804,7 @@
         <v>713</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F76" s="2">
         <v>9</v>
@@ -12818,7 +12827,7 @@
         <v>714</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F77" s="2">
         <v>9</v>
@@ -12841,7 +12850,7 @@
         <v>715</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F78" s="2">
         <v>9</v>
@@ -12864,7 +12873,7 @@
         <v>716</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F79" s="2">
         <v>9</v>
@@ -12887,7 +12896,7 @@
         <v>717</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F80" s="2">
         <v>9</v>
@@ -12910,7 +12919,7 @@
         <v>718</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F81" s="2">
         <v>9</v>
@@ -13137,7 +13146,7 @@
         <v>728</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F91" s="2">
         <v>9</v>
@@ -13160,7 +13169,7 @@
         <v>729</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F92" s="2">
         <v>9</v>
@@ -13183,7 +13192,7 @@
         <v>730</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F93" s="2">
         <v>9</v>
@@ -13206,7 +13215,7 @@
         <v>731</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F94" s="2">
         <v>9</v>
@@ -13229,7 +13238,7 @@
         <v>732</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F95" s="2">
         <v>9</v>
@@ -13252,7 +13261,7 @@
         <v>733</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F96" s="2">
         <v>9</v>
@@ -13275,7 +13284,7 @@
         <v>734</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F97" s="2">
         <v>9</v>
@@ -13298,7 +13307,7 @@
         <v>735</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F98" s="2">
         <v>9</v>
@@ -13436,7 +13445,7 @@
         <v>741</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>1448</v>
@@ -13459,7 +13468,7 @@
         <v>742</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>1448</v>
@@ -13482,7 +13491,7 @@
         <v>743</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>1448</v>
@@ -13505,7 +13514,7 @@
         <v>744</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>1448</v>
@@ -14560,7 +14569,7 @@
         <v>790</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F153" s="2">
         <v>9</v>
@@ -14583,7 +14592,7 @@
         <v>791</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F154" s="2">
         <v>9</v>
@@ -14606,7 +14615,7 @@
         <v>792</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F155" s="2">
         <v>9</v>
@@ -14629,7 +14638,7 @@
         <v>793</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F156" s="2">
         <v>9</v>
@@ -14652,7 +14661,7 @@
         <v>794</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F157" s="2">
         <v>9</v>
@@ -14675,7 +14684,7 @@
         <v>795</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F158" s="2">
         <v>9</v>
@@ -14698,7 +14707,7 @@
         <v>796</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F159" s="2">
         <v>9</v>
@@ -14721,7 +14730,7 @@
         <v>797</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F160" s="2">
         <v>9</v>
@@ -14744,7 +14753,7 @@
         <v>798</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F161" s="2">
         <v>9</v>
@@ -14767,7 +14776,7 @@
         <v>799</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F162" s="2">
         <v>9</v>
@@ -14790,7 +14799,7 @@
         <v>800</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F163" s="2">
         <v>9</v>
@@ -14813,7 +14822,7 @@
         <v>801</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F164" s="2">
         <v>9</v>
@@ -14836,7 +14845,7 @@
         <v>802</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F165" s="2">
         <v>9</v>
@@ -14951,7 +14960,7 @@
         <v>807</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>1448</v>
@@ -14974,7 +14983,7 @@
         <v>808</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>1448</v>
@@ -14997,7 +15006,7 @@
         <v>809</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>1448</v>
@@ -15020,7 +15029,7 @@
         <v>810</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>1448</v>
@@ -16072,7 +16081,7 @@
         <v>1438</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>856</v>
@@ -16095,7 +16104,7 @@
         <v>1438</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>857</v>
@@ -16262,7 +16271,7 @@
         <v>864</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>1738</v>
+        <v>1322</v>
       </c>
       <c r="F227" s="2">
         <v>9</v>
@@ -16313,7 +16322,7 @@
         <v>1439</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>867</v>
@@ -16333,7 +16342,7 @@
         <v>1439</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>868</v>
@@ -16701,8 +16710,8 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16853,7 +16862,7 @@
         <v>1029</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F7" s="2">
         <v>99</v>
@@ -16936,7 +16945,7 @@
         <v>1033</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
@@ -17545,7 +17554,7 @@
         <v>1663</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1060</v>
@@ -17568,7 +17577,7 @@
         <v>1663</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1061</v>
@@ -17591,7 +17600,7 @@
         <v>1663</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1062</v>
@@ -17614,7 +17623,7 @@
         <v>1663</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1063</v>
@@ -17637,7 +17646,7 @@
         <v>1663</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1064</v>
@@ -17660,7 +17669,7 @@
         <v>1663</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1065</v>
@@ -17683,7 +17692,7 @@
         <v>1663</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1066</v>
@@ -17706,7 +17715,7 @@
         <v>1663</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1067</v>
@@ -17729,7 +17738,7 @@
         <v>1663</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1068</v>
@@ -17752,7 +17761,7 @@
         <v>1663</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1069</v>
@@ -17775,7 +17784,7 @@
         <v>1663</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1070</v>
@@ -18561,10 +18570,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>1804</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1806</v>
       </c>
       <c r="F84" s="1">
         <v>999999</v>
@@ -18575,10 +18584,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>1805</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1807</v>
       </c>
       <c r="F85" s="1">
         <v>999999</v>
@@ -18617,10 +18626,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>1808</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>1810</v>
       </c>
       <c r="F88" s="2">
         <v>9</v>
@@ -18631,10 +18640,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>1809</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1811</v>
       </c>
       <c r="F89" s="2">
         <v>99</v>
@@ -18737,7 +18746,7 @@
         <v>1720</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1107</v>
@@ -18757,7 +18766,7 @@
         <v>1720</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1108</v>
@@ -18820,7 +18829,7 @@
         <v>555</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>1716</v>
@@ -18840,7 +18849,7 @@
         <v>556</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>1717</v>

--- a/RA/Nani_2022/T_19/T19_G4_5_Coding_explanation.xlsx
+++ b/RA/Nani_2022/T_19/T19_G4_5_Coding_explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Dropbox (UiO)\Nani\2022\T_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB6DCB-3C10-4ADC-8129-05B2627539DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A2617-8AB5-49A0-8335-9845F82BF94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" activeTab="1" xr2:uid="{6A18A5C5-ACE7-445C-877F-08C8BDB6A624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" xr2:uid="{6A18A5C5-ACE7-445C-877F-08C8BDB6A624}"/>
   </bookViews>
   <sheets>
     <sheet name="1_G4_PV" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1813">
   <si>
     <t>IDCNTRY</t>
   </si>
@@ -5178,18 +5178,6 @@
     <t>IDXSRes</t>
   </si>
   <si>
-    <t>SCLdiscp</t>
-  </si>
-  <si>
-    <t>IDXdiscp</t>
-  </si>
-  <si>
-    <t>SCLready</t>
-  </si>
-  <si>
-    <t>IDXready</t>
-  </si>
-  <si>
     <t>TIMSS construct: Instruction Affected by Math Resource Shortage</t>
   </si>
   <si>
@@ -5205,9 +5193,6 @@
     <t>SchSES</t>
   </si>
   <si>
-    <t xml:space="preserve">(1=0) (2=1) (3=2) </t>
-  </si>
-  <si>
     <t xml:space="preserve">(1=2) (2=1) (3=0) </t>
   </si>
   <si>
@@ -5418,12 +5403,6 @@
     <t>TIMSS construct: Students Enter with Literacy and Numeracy Skills</t>
   </si>
   <si>
-    <t>SCLseasC</t>
-  </si>
-  <si>
-    <t>IDXseasC</t>
-  </si>
-  <si>
     <t>TOTWGT</t>
   </si>
   <si>
@@ -5473,13 +5452,34 @@
   </si>
   <si>
     <t>SPDFCrit</t>
+  </si>
+  <si>
+    <t>SCLSeasC</t>
+  </si>
+  <si>
+    <t>IDXSeasC</t>
+  </si>
+  <si>
+    <t>SCLDiscp</t>
+  </si>
+  <si>
+    <t>IDXDiscp</t>
+  </si>
+  <si>
+    <t>SCLReady</t>
+  </si>
+  <si>
+    <t>IDXReady</t>
+  </si>
+  <si>
+    <t>(1=1) (2=0) (3=2) (4=3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5514,6 +5514,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5536,7 +5543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5553,7 +5560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5594,14 +5601,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5618,12 +5622,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Nani" id="{CFB881F6-A473-412E-B5E1-08380D30AA7B}" userId="Nani" providerId="None"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5923,14 +5921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE747EC5-ED7E-45F7-870C-AB15C783ED72}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5962,10 +5957,10 @@
         <v>1119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5980,7 +5975,7 @@
         <v>9999999999</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5995,7 +5990,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6010,7 +6005,7 @@
         <v>9999</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6025,7 +6020,7 @@
         <v>999999</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6040,7 +6035,7 @@
         <v>99999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6055,7 +6050,7 @@
         <v>99999999</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6070,7 +6065,7 @@
         <v>999999</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6085,7 +6080,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6100,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6115,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6130,7 +6125,7 @@
         <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6145,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6160,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6175,7 +6170,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6190,7 +6185,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6205,7 +6200,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6220,10 +6215,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -6235,10 +6230,10 @@
         <v>99</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -6250,10 +6245,10 @@
         <v>999999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6265,10 +6260,10 @@
         <v>999999</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6280,10 +6275,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6295,10 +6290,10 @@
         <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6312,10 +6307,10 @@
         <v>999999</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6329,10 +6324,10 @@
         <v>999999</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6346,10 +6341,10 @@
         <v>999999</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6363,10 +6358,10 @@
         <v>999999</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6380,10 +6375,10 @@
         <v>999999</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6397,10 +6392,10 @@
         <v>999999</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6414,10 +6409,10 @@
         <v>999999</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6431,10 +6426,10 @@
         <v>999999</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -6448,10 +6443,10 @@
         <v>999999</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -6465,10 +6460,10 @@
         <v>999999</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -6482,10 +6477,10 @@
         <v>999999</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -6499,10 +6494,10 @@
         <v>999999</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -6516,10 +6511,10 @@
         <v>999999</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -6533,10 +6528,10 @@
         <v>999999</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6550,10 +6545,10 @@
         <v>999999</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -6567,10 +6562,10 @@
         <v>999999</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -6584,10 +6579,10 @@
         <v>999999</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -6601,10 +6596,10 @@
         <v>999999</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6618,10 +6613,10 @@
         <v>999999</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6635,10 +6630,10 @@
         <v>999999</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -6652,10 +6647,10 @@
         <v>999999</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -6669,10 +6664,10 @@
         <v>999999</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -6686,10 +6681,10 @@
         <v>999999</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -6703,10 +6698,10 @@
         <v>999999</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -6720,10 +6715,10 @@
         <v>999999</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -6737,10 +6732,10 @@
         <v>999999</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -6754,10 +6749,10 @@
         <v>999999</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -6771,10 +6766,10 @@
         <v>999999</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -6788,10 +6783,10 @@
         <v>999999</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -6805,10 +6800,10 @@
         <v>999999</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -6822,7 +6817,7 @@
         <v>999999</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -6839,7 +6834,7 @@
         <v>999999</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -6856,7 +6851,7 @@
         <v>999999</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6873,7 +6868,7 @@
         <v>999999</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -6890,7 +6885,7 @@
         <v>999999</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6907,7 +6902,7 @@
         <v>999999</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -6924,7 +6919,7 @@
         <v>999999</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,7 +6936,7 @@
         <v>999999</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -6958,7 +6953,7 @@
         <v>999999</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -6975,7 +6970,7 @@
         <v>999999</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -6992,7 +6987,7 @@
         <v>999999</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7009,7 +7004,7 @@
         <v>999999</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,7 +7021,7 @@
         <v>999999</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7043,7 +7038,7 @@
         <v>999999</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -7060,7 +7055,7 @@
         <v>999999</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,7 +7072,7 @@
         <v>999999</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -7094,7 +7089,7 @@
         <v>999999</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -7111,7 +7106,7 @@
         <v>999999</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -7128,7 +7123,7 @@
         <v>999999</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -7145,7 +7140,7 @@
         <v>999999</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -7162,7 +7157,7 @@
         <v>999999</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -7179,7 +7174,7 @@
         <v>999999</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -7196,7 +7191,7 @@
         <v>999999</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -7213,7 +7208,7 @@
         <v>999999</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -7230,7 +7225,7 @@
         <v>999999</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -7247,7 +7242,7 @@
         <v>999999</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7264,7 +7259,7 @@
         <v>999999</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7281,7 +7276,7 @@
         <v>999999</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7298,7 +7293,7 @@
         <v>999999</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7315,7 +7310,7 @@
         <v>999999</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7332,7 +7327,7 @@
         <v>999999</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7349,7 +7344,7 @@
         <v>999999</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7366,7 +7361,7 @@
         <v>999999</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7383,7 +7378,7 @@
         <v>999999</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7400,7 +7395,7 @@
         <v>999999</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7417,7 +7412,7 @@
         <v>999999</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7434,7 +7429,7 @@
         <v>999999</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7451,7 +7446,7 @@
         <v>999999</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7468,7 +7463,7 @@
         <v>999999</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -7485,102 +7480,102 @@
         <v>999999</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>1783</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>1788</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="13">
         <v>999999</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>1784</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>1789</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="13">
         <v>999999</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>1785</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>1790</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="13">
         <v>999999</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>1786</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>1791</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="13">
         <v>999999</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>1787</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>1792</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="13">
         <v>999999</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7597,7 +7592,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -7614,7 +7609,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -7631,7 +7626,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -7648,7 +7643,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -7665,7 +7660,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7682,7 +7677,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7699,7 +7694,7 @@
         <v>9</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7716,7 +7711,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7733,7 +7728,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7750,37 +7745,37 @@
         <v>9</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="C109" s="9"/>
       <c r="G109" s="1" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="C110" s="9"/>
       <c r="G110" s="1" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="1" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -7793,14 +7788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB05E97-A208-4D69-9D0E-784813A27FBB}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7832,10 +7824,10 @@
         <v>1119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7850,7 +7842,7 @@
         <v>9999999999</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7865,7 +7857,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7880,7 +7872,7 @@
         <v>9999</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7895,7 +7887,7 @@
         <v>999999</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7910,7 +7902,7 @@
         <v>99999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7933,7 +7925,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7950,13 +7942,13 @@
         <v>886</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F8" s="2">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7979,7 +7971,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8002,7 +7994,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8025,7 +8017,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8048,7 +8040,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8071,7 +8063,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8094,7 +8086,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8117,7 +8109,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8140,7 +8132,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8163,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8186,7 +8178,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8194,7 +8186,7 @@
         <v>338</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>1481</v>
@@ -8203,13 +8195,13 @@
         <v>894</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1303</v>
+        <v>1812</v>
       </c>
       <c r="F19" s="2">
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8217,7 +8209,7 @@
         <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>1482</v>
@@ -8226,13 +8218,13 @@
         <v>895</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1303</v>
+        <v>1812</v>
       </c>
       <c r="F20" s="2">
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8249,16 +8241,16 @@
         <v>896</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1613</v>
+        <v>1276</v>
       </c>
       <c r="F21" s="2">
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>341</v>
       </c>
@@ -8278,7 +8270,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8295,13 +8287,13 @@
         <v>898</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F23" s="2">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8318,16 +8310,16 @@
         <v>899</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F24" s="2">
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>344</v>
       </c>
@@ -8341,16 +8333,16 @@
         <v>900</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F25" s="2">
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>345</v>
       </c>
@@ -8364,16 +8356,16 @@
         <v>901</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F26" s="2">
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>346</v>
       </c>
@@ -8387,16 +8379,16 @@
         <v>902</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F27" s="2">
         <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>347</v>
       </c>
@@ -8410,16 +8402,16 @@
         <v>903</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F28" s="2">
         <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>348</v>
       </c>
@@ -8433,16 +8425,16 @@
         <v>904</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F29" s="2">
         <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>349</v>
       </c>
@@ -8456,16 +8448,16 @@
         <v>905</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F30" s="2">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>350</v>
       </c>
@@ -8479,16 +8471,16 @@
         <v>906</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F31" s="2">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>351</v>
       </c>
@@ -8502,243 +8494,243 @@
         <v>907</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F32" s="2">
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>1500</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>908</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F33" s="2">
         <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>1501</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>909</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F34" s="2">
         <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="10" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>910</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F35" s="2">
         <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>1502</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>911</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="10" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>912</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F37" s="2">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="10" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>913</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F38" s="2">
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>1503</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>914</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F39" s="2">
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>1504</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>915</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1738</v>
+        <v>1303</v>
       </c>
       <c r="F40" s="2">
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="10" t="s">
         <v>1505</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>916</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F41" s="2">
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="10" t="s">
         <v>1506</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>917</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F42" s="2">
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8754,14 +8746,14 @@
       <c r="D43" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>1738</v>
+      <c r="E43" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F43" s="2">
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,17 +8769,17 @@
       <c r="D44" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>1738</v>
+      <c r="E44" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F44" s="2">
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>364</v>
       </c>
@@ -8801,16 +8793,16 @@
         <v>920</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F45" s="2">
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>365</v>
       </c>
@@ -8824,16 +8816,16 @@
         <v>921</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F46" s="2">
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>366</v>
       </c>
@@ -8847,16 +8839,16 @@
         <v>922</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F47" s="2">
         <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>367</v>
       </c>
@@ -8870,16 +8862,16 @@
         <v>923</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F48" s="2">
         <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>368</v>
       </c>
@@ -8893,16 +8885,16 @@
         <v>924</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F49" s="2">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>369</v>
       </c>
@@ -8916,151 +8908,151 @@
         <v>925</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F50" s="2">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="F51" s="5">
+        <v>9</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F51" s="16">
-        <v>9</v>
-      </c>
-      <c r="G51" s="14" t="s">
+      <c r="C52" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="B52" s="14" t="s">
+      <c r="F52" s="5">
+        <v>9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>927</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F52" s="16">
-        <v>9</v>
-      </c>
-      <c r="G52" s="14" t="s">
+      <c r="C53" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="F53" s="5">
+        <v>9</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>928</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F53" s="16">
-        <v>9</v>
-      </c>
-      <c r="G53" s="14" t="s">
+      <c r="C54" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B54" s="14" t="s">
+      <c r="F54" s="5">
+        <v>9</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>929</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F54" s="16">
-        <v>9</v>
-      </c>
-      <c r="G54" s="14" t="s">
+      <c r="C55" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="14" t="s">
+      <c r="F55" s="5">
+        <v>9</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F55" s="16">
-        <v>9</v>
-      </c>
-      <c r="G55" s="14" t="s">
+      <c r="C56" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F56" s="16">
-        <v>9</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>1733</v>
+      <c r="F56" s="5">
+        <v>9</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -9077,13 +9069,13 @@
         <v>932</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F57" s="2">
         <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -9093,20 +9085,20 @@
       <c r="B58" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="10" t="s">
         <v>1522</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>933</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F58" s="2">
         <v>9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -9116,20 +9108,20 @@
       <c r="B59" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="10" t="s">
         <v>1524</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>934</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F59" s="2">
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -9139,20 +9131,20 @@
       <c r="B60" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="10" t="s">
         <v>1523</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>935</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F60" s="2">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -9162,20 +9154,20 @@
       <c r="B61" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="10" t="s">
         <v>1525</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>936</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F61" s="2">
         <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -9185,20 +9177,20 @@
       <c r="B62" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>1526</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>937</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F62" s="2">
         <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -9215,13 +9207,13 @@
         <v>938</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F63" s="2">
         <v>9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -9231,20 +9223,20 @@
       <c r="B64" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>1775</v>
+      <c r="C64" s="10" t="s">
+        <v>1770</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>1738</v>
+      <c r="E64" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F64" s="2">
         <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -9260,14 +9252,14 @@
       <c r="D65" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>1738</v>
+      <c r="E65" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F65" s="2">
         <v>9</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -9284,13 +9276,13 @@
         <v>941</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F66" s="2">
         <v>9</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -9306,14 +9298,14 @@
       <c r="D67" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>1738</v>
+      <c r="E67" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F67" s="2">
         <v>9</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -9330,13 +9322,13 @@
         <v>943</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F68" s="2">
         <v>9</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -9353,13 +9345,13 @@
         <v>944</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F69" s="2">
         <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -9369,20 +9361,20 @@
       <c r="B70" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>1776</v>
+      <c r="C70" s="10" t="s">
+        <v>1771</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>1738</v>
+      <c r="E70" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F70" s="2">
         <v>9</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -9398,14 +9390,14 @@
       <c r="D71" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>1738</v>
+      <c r="E71" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F71" s="2">
         <v>9</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -9415,20 +9407,20 @@
       <c r="B72" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="10" t="s">
         <v>1539</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>947</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F72" s="2">
         <v>9</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -9438,20 +9430,20 @@
       <c r="B73" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="10" t="s">
         <v>1541</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>948</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F73" s="2">
         <v>9</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -9461,20 +9453,20 @@
       <c r="B74" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="10" t="s">
         <v>1542</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>1738</v>
+      <c r="E74" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F74" s="2">
         <v>9</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -9484,20 +9476,20 @@
       <c r="B75" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="10" t="s">
         <v>1543</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>1738</v>
+      <c r="E75" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F75" s="2">
         <v>9</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -9507,20 +9499,20 @@
       <c r="B76" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="10" t="s">
         <v>1544</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>951</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F76" s="2">
         <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -9530,20 +9522,20 @@
       <c r="B77" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="10" t="s">
         <v>1545</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>952</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F77" s="2">
         <v>9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -9553,20 +9545,20 @@
       <c r="B78" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="10" t="s">
         <v>1546</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>953</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F78" s="2">
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -9576,20 +9568,20 @@
       <c r="B79" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="10" t="s">
         <v>1547</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>954</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F79" s="2">
         <v>9</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9599,20 +9591,20 @@
       <c r="B80" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="10" t="s">
         <v>1548</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>955</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F80" s="2">
         <v>9</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -9622,20 +9614,20 @@
       <c r="B81" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="10" t="s">
         <v>1549</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>956</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F81" s="2">
         <v>9</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -9645,20 +9637,20 @@
       <c r="B82" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="10" t="s">
         <v>1553</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>957</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F82" s="2">
         <v>9</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -9668,20 +9660,20 @@
       <c r="B83" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="10" t="s">
         <v>1554</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>958</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F83" s="2">
         <v>9</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -9691,20 +9683,20 @@
       <c r="B84" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="10" t="s">
         <v>1555</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>959</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F84" s="2">
         <v>9</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -9714,20 +9706,20 @@
       <c r="B85" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="10" t="s">
         <v>1556</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>960</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F85" s="2">
         <v>9</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -9737,20 +9729,20 @@
       <c r="B86" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="10" t="s">
         <v>1557</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>961</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F86" s="2">
         <v>9</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -9760,20 +9752,20 @@
       <c r="B87" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="10" t="s">
         <v>1558</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>962</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F87" s="2">
         <v>9</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -9783,20 +9775,20 @@
       <c r="B88" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="10" t="s">
         <v>1559</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>963</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F88" s="2">
         <v>9</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -9806,20 +9798,20 @@
       <c r="B89" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="10" t="s">
         <v>1560</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>1738</v>
+      <c r="E89" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F89" s="2">
         <v>9</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -9829,20 +9821,20 @@
       <c r="B90" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="10" t="s">
         <v>1561</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>1738</v>
+      <c r="E90" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F90" s="2">
         <v>9</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -9852,20 +9844,20 @@
       <c r="B91" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="10" t="s">
         <v>1562</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>966</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F91" s="2">
         <v>9</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -9875,20 +9867,20 @@
       <c r="B92" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="10" t="s">
         <v>1563</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>967</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F92" s="2">
         <v>9</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -9898,20 +9890,20 @@
       <c r="B93" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="10" t="s">
         <v>1565</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>1738</v>
+      <c r="E93" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F93" s="2">
         <v>9</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -9921,20 +9913,20 @@
       <c r="B94" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="10" t="s">
         <v>1564</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>1738</v>
+      <c r="E94" s="14" t="s">
+        <v>1303</v>
       </c>
       <c r="F94" s="2">
         <v>9</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -9944,20 +9936,20 @@
       <c r="B95" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="10" t="s">
         <v>1567</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>970</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F95" s="2">
         <v>9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -9967,7 +9959,7 @@
       <c r="B96" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="10" t="s">
         <v>1569</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -9980,7 +9972,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -9990,7 +9982,7 @@
       <c r="B97" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="10" t="s">
         <v>1571</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -10003,7 +9995,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -10013,7 +10005,7 @@
       <c r="B98" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="10" t="s">
         <v>1570</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -10026,7 +10018,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -10036,7 +10028,7 @@
       <c r="B99" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="10" t="s">
         <v>1572</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -10049,7 +10041,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -10059,7 +10051,7 @@
       <c r="B100" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="10" t="s">
         <v>1573</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -10072,7 +10064,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -10082,7 +10074,7 @@
       <c r="B101" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="10" t="s">
         <v>1574</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -10095,7 +10087,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10105,20 +10097,20 @@
       <c r="B102" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="10" t="s">
         <v>1576</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>977</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F102" s="2">
         <v>9</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10128,20 +10120,20 @@
       <c r="B103" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="10" t="s">
         <v>1577</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>978</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F103" s="2">
         <v>9</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10151,20 +10143,20 @@
       <c r="B104" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="10" t="s">
         <v>1578</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>979</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F104" s="2">
         <v>9</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -10174,20 +10166,20 @@
       <c r="B105" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="10" t="s">
         <v>1579</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>980</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F105" s="2">
         <v>9</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10197,20 +10189,20 @@
       <c r="B106" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="10" t="s">
         <v>1581</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F106" s="2">
         <v>9</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -10220,20 +10212,20 @@
       <c r="B107" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="10" t="s">
         <v>1582</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>982</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F107" s="2">
         <v>9</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10243,20 +10235,20 @@
       <c r="B108" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="10" t="s">
         <v>1583</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>983</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F108" s="2">
         <v>9</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10266,20 +10258,20 @@
       <c r="B109" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="10" t="s">
         <v>1584</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>984</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F109" s="2">
         <v>9</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10289,20 +10281,20 @@
       <c r="B110" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="10" t="s">
         <v>1585</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>985</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F110" s="2">
         <v>9</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10312,20 +10304,20 @@
       <c r="B111" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="10" t="s">
         <v>1586</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>986</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F111" s="2">
         <v>9</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10335,26 +10327,27 @@
       <c r="B112" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="10" t="s">
         <v>1587</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>987</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F112" s="2">
         <v>9</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C113" s="10"/>
       <c r="D113" s="1" t="s">
         <v>567</v>
       </c>
@@ -10362,13 +10355,14 @@
         <v>9</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C114" s="10"/>
       <c r="D114" s="1" t="s">
         <v>568</v>
       </c>
@@ -10376,13 +10370,14 @@
         <v>9</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C115" s="10"/>
       <c r="D115" s="1" t="s">
         <v>569</v>
       </c>
@@ -10390,7 +10385,7 @@
         <v>99</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -10400,6 +10395,7 @@
       <c r="B116" s="1" t="s">
         <v>988</v>
       </c>
+      <c r="C116" s="10"/>
       <c r="D116" s="1" t="s">
         <v>988</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>99</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -10417,6 +10413,7 @@
       <c r="B117" s="1" t="s">
         <v>989</v>
       </c>
+      <c r="C117" s="10"/>
       <c r="D117" s="1" t="s">
         <v>989</v>
       </c>
@@ -10424,7 +10421,7 @@
         <v>9999999999</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -10434,6 +10431,7 @@
       <c r="B118" s="1" t="s">
         <v>990</v>
       </c>
+      <c r="C118" s="10"/>
       <c r="D118" s="1" t="s">
         <v>990</v>
       </c>
@@ -10441,7 +10439,7 @@
         <v>99</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -10451,6 +10449,7 @@
       <c r="B119" s="1" t="s">
         <v>991</v>
       </c>
+      <c r="C119" s="10"/>
       <c r="D119" s="1" t="s">
         <v>991</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>9999999999</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -10468,8 +10467,8 @@
       <c r="B120" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>1777</v>
+      <c r="C120" s="10" t="s">
+        <v>1772</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>992</v>
@@ -10481,7 +10480,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -10491,7 +10490,7 @@
       <c r="B121" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="10" t="s">
         <v>1588</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -10501,7 +10500,7 @@
         <v>99</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -10511,68 +10510,72 @@
       <c r="B122" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="10" t="s">
         <v>1590</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>994</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="F122" s="2">
         <v>9</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1796</v>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="C123" s="10"/>
       <c r="D123" s="1" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="F123" s="2">
         <v>999999</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1797</v>
-      </c>
+        <v>1790</v>
+      </c>
+      <c r="C124" s="10"/>
       <c r="D124" s="1" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="F124" s="2">
         <v>999999</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1798</v>
-      </c>
+        <v>1791</v>
+      </c>
+      <c r="C125" s="10"/>
       <c r="D125" s="1" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="F125" s="2">
         <v>999999</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="C126" s="10"/>
       <c r="D126" s="1" t="s">
         <v>995</v>
       </c>
@@ -10580,13 +10583,14 @@
         <v>999999</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="C127" s="10"/>
       <c r="D127" s="1" t="s">
         <v>996</v>
       </c>
@@ -10594,13 +10598,14 @@
         <v>999999</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="C128" s="10"/>
       <c r="D128" s="1" t="s">
         <v>997</v>
       </c>
@@ -10608,13 +10613,14 @@
         <v>999999</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="C129" s="10"/>
       <c r="D129" s="1" t="s">
         <v>998</v>
       </c>
@@ -10622,13 +10628,14 @@
         <v>999999</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>443</v>
       </c>
+      <c r="C130" s="10"/>
       <c r="D130" s="1" t="s">
         <v>999</v>
       </c>
@@ -10636,13 +10643,14 @@
         <v>999999</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>444</v>
       </c>
+      <c r="C131" s="10"/>
       <c r="D131" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10650,14 +10658,14 @@
         <v>999999</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="8"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="1" t="s">
         <v>579</v>
       </c>
@@ -10665,14 +10673,14 @@
         <v>9</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="15"/>
       <c r="D133" s="1" t="s">
         <v>580</v>
       </c>
@@ -10680,7 +10688,7 @@
         <v>99</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10690,7 +10698,7 @@
       <c r="B134" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="10" t="s">
         <v>1591</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -10700,7 +10708,7 @@
         <v>999999</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10710,20 +10718,20 @@
       <c r="B135" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="10" t="s">
         <v>1592</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1740</v>
+        <v>1275</v>
       </c>
       <c r="F135" s="2">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10733,7 +10741,7 @@
       <c r="B136" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="10" t="s">
         <v>1598</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -10743,7 +10751,7 @@
         <v>999999</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10753,7 +10761,7 @@
       <c r="B137" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="10" t="s">
         <v>1599</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -10766,7 +10774,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -10776,7 +10784,7 @@
       <c r="B138" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="10" t="s">
         <v>1593</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -10786,7 +10794,7 @@
         <v>999999</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -10796,7 +10804,7 @@
       <c r="B139" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="10" t="s">
         <v>1594</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -10809,7 +10817,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -10819,8 +10827,8 @@
       <c r="B140" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>1747</v>
+      <c r="C140" s="10" t="s">
+        <v>1742</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>1007</v>
@@ -10829,7 +10837,7 @@
         <v>999999</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -10839,20 +10847,20 @@
       <c r="B141" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="10" t="s">
         <v>1595</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1740</v>
+        <v>1275</v>
       </c>
       <c r="F141" s="2">
         <v>9</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -10862,7 +10870,7 @@
       <c r="B142" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="10" t="s">
         <v>1596</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -10872,7 +10880,7 @@
         <v>999999</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -10882,7 +10890,7 @@
       <c r="B143" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="10" t="s">
         <v>1597</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -10895,7 +10903,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10905,7 +10913,7 @@
       <c r="B144" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="10" t="s">
         <v>1600</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -10915,7 +10923,7 @@
         <v>999999</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10925,7 +10933,7 @@
       <c r="B145" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="10" t="s">
         <v>1601</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -10938,7 +10946,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -10958,7 +10966,7 @@
         <v>999999</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -10981,7 +10989,7 @@
         <v>9</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11001,7 +11009,7 @@
         <v>999999</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11024,7 +11032,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11044,7 +11052,7 @@
         <v>999999</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11067,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11075,7 +11083,7 @@
         <v>463</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>1608</v>
@@ -11087,7 +11095,7 @@
         <v>999999</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11095,7 +11103,7 @@
         <v>464</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>1609</v>
@@ -11110,7 +11118,7 @@
         <v>9</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11120,8 +11128,8 @@
       <c r="B154" s="4" t="s">
         <v>1709</v>
       </c>
-      <c r="C154" s="12" t="s">
-        <v>1745</v>
+      <c r="C154" s="10" t="s">
+        <v>1740</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>1021</v>
@@ -11130,7 +11138,7 @@
         <v>999999</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11140,8 +11148,8 @@
       <c r="B155" s="4" t="s">
         <v>1709</v>
       </c>
-      <c r="C155" s="12" t="s">
-        <v>1746</v>
+      <c r="C155" s="10" t="s">
+        <v>1741</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>1022</v>
@@ -11153,7 +11161,7 @@
         <v>9</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11173,7 +11181,7 @@
         <v>9</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -11196,7 +11204,7 @@
         <v>9</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -11219,7 +11227,7 @@
         <v>9</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -11231,14 +11239,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACF80DD-4E5C-45F3-B437-08CAD14E5131}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A228" sqref="A228:XFD228"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11270,10 +11275,10 @@
         <v>1119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11288,7 +11293,7 @@
         <v>9999999999</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11303,7 +11308,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11318,7 +11323,7 @@
         <v>9999</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11333,7 +11338,7 @@
         <v>999999</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11348,7 +11353,7 @@
         <v>99999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11363,7 +11368,7 @@
         <v>99999999</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11378,7 +11383,7 @@
         <v>999999</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11393,7 +11398,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11408,7 +11413,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11423,7 +11428,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11438,7 +11443,7 @@
         <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11453,7 +11458,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11468,7 +11473,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -11483,7 +11488,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -11498,7 +11503,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11513,7 +11518,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11528,7 +11533,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11543,7 +11548,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11558,7 +11563,7 @@
         <v>999999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11573,7 +11578,7 @@
         <v>999999</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11588,7 +11593,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -11603,7 +11608,7 @@
         <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -11623,7 +11628,7 @@
         <v>99</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -11646,7 +11651,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -11669,7 +11674,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11692,7 +11697,7 @@
         <v>99</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11715,7 +11720,7 @@
         <v>1448</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11738,7 +11743,7 @@
         <v>1448</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11761,7 +11766,7 @@
         <v>1448</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11784,7 +11789,7 @@
         <v>1448</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -11807,7 +11812,7 @@
         <v>1448</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -11830,7 +11835,7 @@
         <v>1448</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -11853,7 +11858,7 @@
         <v>1448</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -11876,7 +11881,7 @@
         <v>1448</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11899,7 +11904,7 @@
         <v>1448</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -11922,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11932,20 +11937,20 @@
       <c r="B38" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>1748</v>
+      <c r="C38" s="10" t="s">
+        <v>1743</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>675</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F38" s="2">
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11955,20 +11960,20 @@
       <c r="B39" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>1749</v>
+      <c r="C39" s="10" t="s">
+        <v>1744</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>676</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F39" s="2">
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -11978,20 +11983,20 @@
       <c r="B40" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>1750</v>
+      <c r="C40" s="10" t="s">
+        <v>1745</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F40" s="2">
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12001,20 +12006,20 @@
       <c r="B41" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>1751</v>
+      <c r="C41" s="10" t="s">
+        <v>1746</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>678</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F41" s="2">
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12024,20 +12029,20 @@
       <c r="B42" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>1752</v>
+      <c r="C42" s="10" t="s">
+        <v>1747</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>679</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F42" s="2">
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12047,20 +12052,20 @@
       <c r="B43" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>1753</v>
+      <c r="C43" s="10" t="s">
+        <v>1748</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>680</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F43" s="2">
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12070,20 +12075,20 @@
       <c r="B44" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>1754</v>
+      <c r="C44" s="10" t="s">
+        <v>1749</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>681</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F44" s="2">
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -12093,20 +12098,20 @@
       <c r="B45" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>1755</v>
+      <c r="C45" s="10" t="s">
+        <v>1750</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>682</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F45" s="2">
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -12116,20 +12121,20 @@
       <c r="B46" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>1756</v>
+      <c r="C46" s="10" t="s">
+        <v>1751</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F46" s="2">
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -12139,20 +12144,20 @@
       <c r="B47" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>1757</v>
+      <c r="C47" s="10" t="s">
+        <v>1752</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>684</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F47" s="2">
         <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -12162,20 +12167,20 @@
       <c r="B48" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>1758</v>
+      <c r="C48" s="10" t="s">
+        <v>1753</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>685</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F48" s="2">
         <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -12185,20 +12190,20 @@
       <c r="B49" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>1810</v>
+      <c r="C49" s="10" t="s">
+        <v>1803</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>686</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F49" s="2">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -12208,20 +12213,20 @@
       <c r="B50" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="10" t="s">
         <v>1140</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>687</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F50" s="2">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -12231,20 +12236,20 @@
       <c r="B51" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="10" t="s">
         <v>1141</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>688</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F51" s="2">
         <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -12261,13 +12266,13 @@
         <v>689</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F52" s="2">
         <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -12284,13 +12289,13 @@
         <v>690</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F53" s="2">
         <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -12307,13 +12312,13 @@
         <v>691</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F54" s="2">
         <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -12330,13 +12335,13 @@
         <v>692</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F55" s="2">
         <v>9</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -12353,13 +12358,13 @@
         <v>693</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F56" s="2">
         <v>9</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -12376,13 +12381,13 @@
         <v>694</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F57" s="2">
         <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -12399,13 +12404,13 @@
         <v>695</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F58" s="2">
         <v>9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -12422,13 +12427,13 @@
         <v>696</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F59" s="2">
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -12445,13 +12450,13 @@
         <v>697</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F60" s="2">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -12468,13 +12473,13 @@
         <v>698</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F61" s="2">
         <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -12491,13 +12496,13 @@
         <v>699</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F62" s="2">
         <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -12514,13 +12519,13 @@
         <v>700</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F63" s="2">
         <v>9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -12537,13 +12542,13 @@
         <v>701</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F64" s="2">
         <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -12560,13 +12565,13 @@
         <v>702</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F65" s="2">
         <v>9</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -12583,13 +12588,13 @@
         <v>703</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F66" s="2">
         <v>9</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -12606,13 +12611,13 @@
         <v>704</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F67" s="2">
         <v>9</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -12629,13 +12634,13 @@
         <v>705</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F68" s="2">
         <v>9</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -12652,13 +12657,13 @@
         <v>706</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F69" s="2">
         <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -12675,13 +12680,13 @@
         <v>707</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F70" s="2">
         <v>9</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -12701,7 +12706,7 @@
         <v>999</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -12721,7 +12726,7 @@
         <v>999</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -12741,7 +12746,7 @@
         <v>999</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -12758,13 +12763,13 @@
         <v>711</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F74" s="2">
         <v>9</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -12781,13 +12786,13 @@
         <v>712</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F75" s="2">
         <v>9</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -12804,13 +12809,13 @@
         <v>713</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F76" s="2">
         <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -12827,13 +12832,13 @@
         <v>714</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F77" s="2">
         <v>9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -12850,13 +12855,13 @@
         <v>715</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F78" s="2">
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -12873,13 +12878,13 @@
         <v>716</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F79" s="2">
         <v>9</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -12896,13 +12901,13 @@
         <v>717</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F80" s="2">
         <v>9</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -12919,13 +12924,13 @@
         <v>718</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F81" s="2">
         <v>9</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -12948,7 +12953,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -12971,7 +12976,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -12994,7 +12999,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -13017,7 +13022,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -13040,7 +13045,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -13063,7 +13068,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -13086,7 +13091,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -13109,7 +13114,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -13129,7 +13134,7 @@
         <v>9999</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -13146,13 +13151,13 @@
         <v>728</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F91" s="2">
         <v>9</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -13169,13 +13174,13 @@
         <v>729</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F92" s="2">
         <v>9</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -13192,13 +13197,13 @@
         <v>730</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F93" s="2">
         <v>9</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -13215,13 +13220,13 @@
         <v>731</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F94" s="2">
         <v>9</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -13238,13 +13243,13 @@
         <v>732</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F95" s="2">
         <v>9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -13261,13 +13266,13 @@
         <v>733</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F96" s="2">
         <v>9</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -13284,13 +13289,13 @@
         <v>734</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F97" s="2">
         <v>9</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -13307,13 +13312,13 @@
         <v>735</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F98" s="2">
         <v>9</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -13336,7 +13341,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -13359,7 +13364,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -13382,7 +13387,7 @@
         <v>1448</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -13405,7 +13410,7 @@
         <v>1448</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -13428,7 +13433,7 @@
         <v>1448</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -13445,13 +13450,13 @@
         <v>741</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -13468,13 +13473,13 @@
         <v>742</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -13491,13 +13496,13 @@
         <v>743</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -13514,13 +13519,13 @@
         <v>744</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -13543,7 +13548,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -13566,7 +13571,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -13589,7 +13594,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -13612,7 +13617,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -13635,7 +13640,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -13658,7 +13663,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -13681,7 +13686,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -13704,7 +13709,7 @@
         <v>9</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -13727,7 +13732,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -13750,7 +13755,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -13773,7 +13778,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -13796,7 +13801,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -13819,7 +13824,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -13842,7 +13847,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -13865,7 +13870,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -13888,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -13911,7 +13916,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -13927,14 +13932,14 @@
       <c r="D125" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="F125" s="2">
         <v>9</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -13957,7 +13962,7 @@
         <v>1448</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -13980,7 +13985,7 @@
         <v>1448</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -14003,7 +14008,7 @@
         <v>1448</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -14026,7 +14031,7 @@
         <v>1448</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -14049,7 +14054,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -14072,7 +14077,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -14095,7 +14100,7 @@
         <v>9</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -14118,7 +14123,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -14141,7 +14146,7 @@
         <v>9</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -14149,7 +14154,7 @@
         <v>213</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>1304</v>
@@ -14164,7 +14169,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14187,7 +14192,7 @@
         <v>9</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14210,7 +14215,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14233,7 +14238,7 @@
         <v>9</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14256,7 +14261,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14279,7 +14284,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14302,7 +14307,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14325,7 +14330,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14348,7 +14353,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14371,7 +14376,7 @@
         <v>9</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14394,7 +14399,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14417,7 +14422,7 @@
         <v>9</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14440,7 +14445,7 @@
         <v>9</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14463,7 +14468,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -14486,7 +14491,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -14509,7 +14514,7 @@
         <v>9</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -14532,7 +14537,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -14552,7 +14557,7 @@
         <v>9999</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -14569,13 +14574,13 @@
         <v>790</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F153" s="2">
         <v>9</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -14592,13 +14597,13 @@
         <v>791</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F154" s="2">
         <v>9</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -14615,13 +14620,13 @@
         <v>792</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F155" s="2">
         <v>9</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -14638,13 +14643,13 @@
         <v>793</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F156" s="2">
         <v>9</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -14661,13 +14666,13 @@
         <v>794</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F157" s="2">
         <v>9</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -14684,13 +14689,13 @@
         <v>795</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F158" s="2">
         <v>9</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -14707,13 +14712,13 @@
         <v>796</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F159" s="2">
         <v>9</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -14730,13 +14735,13 @@
         <v>797</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F160" s="2">
         <v>9</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -14753,13 +14758,13 @@
         <v>798</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F161" s="2">
         <v>9</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -14776,13 +14781,13 @@
         <v>799</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F162" s="2">
         <v>9</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -14799,13 +14804,13 @@
         <v>800</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F163" s="2">
         <v>9</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -14822,13 +14827,13 @@
         <v>801</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F164" s="2">
         <v>9</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -14845,13 +14850,13 @@
         <v>802</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F165" s="2">
         <v>9</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -14874,7 +14879,7 @@
         <v>9</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -14897,7 +14902,7 @@
         <v>1448</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -14920,7 +14925,7 @@
         <v>1448</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -14943,7 +14948,7 @@
         <v>1448</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -14960,13 +14965,13 @@
         <v>807</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -14983,13 +14988,13 @@
         <v>808</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -15006,13 +15011,13 @@
         <v>809</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -15029,13 +15034,13 @@
         <v>810</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -15058,7 +15063,7 @@
         <v>9</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -15081,7 +15086,7 @@
         <v>9</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -15104,7 +15109,7 @@
         <v>9</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -15127,7 +15132,7 @@
         <v>9</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -15150,7 +15155,7 @@
         <v>9</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -15173,7 +15178,7 @@
         <v>9</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -15196,7 +15201,7 @@
         <v>9</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -15219,7 +15224,7 @@
         <v>9</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -15242,7 +15247,7 @@
         <v>9</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -15265,7 +15270,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -15288,7 +15293,7 @@
         <v>9</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -15311,7 +15316,7 @@
         <v>9</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -15334,7 +15339,7 @@
         <v>9</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -15357,7 +15362,7 @@
         <v>9</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -15380,7 +15385,7 @@
         <v>9</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -15403,7 +15408,7 @@
         <v>9</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -15426,7 +15431,7 @@
         <v>9</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -15449,7 +15454,7 @@
         <v>9</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -15472,7 +15477,7 @@
         <v>9</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -15495,7 +15500,7 @@
         <v>9</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -15518,7 +15523,7 @@
         <v>9</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -15541,7 +15546,7 @@
         <v>9</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -15564,7 +15569,7 @@
         <v>9</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -15587,7 +15592,7 @@
         <v>9</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -15610,7 +15615,7 @@
         <v>9</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -15633,7 +15638,7 @@
         <v>9</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -15649,14 +15654,14 @@
       <c r="D200" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E200" s="11" t="s">
+      <c r="E200" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="F200" s="2">
         <v>9</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -15679,7 +15684,7 @@
         <v>1448</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -15702,7 +15707,7 @@
         <v>1448</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -15725,7 +15730,7 @@
         <v>1448</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -15748,7 +15753,7 @@
         <v>1448</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -15771,7 +15776,7 @@
         <v>9</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -15794,7 +15799,7 @@
         <v>9</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -15817,7 +15822,7 @@
         <v>9</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -15840,7 +15845,7 @@
         <v>9</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -15863,7 +15868,7 @@
         <v>9</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -15886,7 +15891,7 @@
         <v>9</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15909,7 +15914,7 @@
         <v>9</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15932,7 +15937,7 @@
         <v>9</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15955,7 +15960,7 @@
         <v>9</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15978,7 +15983,7 @@
         <v>9</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16001,7 +16006,7 @@
         <v>9</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16024,7 +16029,7 @@
         <v>9</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16047,7 +16052,7 @@
         <v>9</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16070,7 +16075,7 @@
         <v>9</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16080,8 +16085,8 @@
       <c r="B219" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="C219" s="12" t="s">
-        <v>1811</v>
+      <c r="C219" s="10" t="s">
+        <v>1804</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>856</v>
@@ -16093,7 +16098,7 @@
         <v>9</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16103,8 +16108,8 @@
       <c r="B220" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="C220" s="12" t="s">
-        <v>1812</v>
+      <c r="C220" s="10" t="s">
+        <v>1805</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>857</v>
@@ -16116,7 +16121,7 @@
         <v>9</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16139,7 +16144,7 @@
         <v>9</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16162,7 +16167,7 @@
         <v>9</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16185,7 +16190,7 @@
         <v>9</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16208,7 +16213,7 @@
         <v>9</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16231,7 +16236,7 @@
         <v>9</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16254,10 +16259,10 @@
         <v>9</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>305</v>
       </c>
@@ -16270,17 +16275,17 @@
       <c r="D227" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E227" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="F227" s="2">
-        <v>9</v>
-      </c>
-      <c r="G227" s="11" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F227" s="5">
+        <v>9</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>306</v>
       </c>
@@ -16294,10 +16299,10 @@
         <v>99</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>307</v>
       </c>
@@ -16311,18 +16316,18 @@
         <v>9999999999</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="C230" s="12" t="s">
-        <v>1770</v>
+      <c r="C230" s="10" t="s">
+        <v>1765</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>867</v>
@@ -16331,18 +16336,18 @@
         <v>999999</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="C231" s="12" t="s">
-        <v>1771</v>
+      <c r="C231" s="10" t="s">
+        <v>1766</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>868</v>
@@ -16354,10 +16359,10 @@
         <v>9</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>310</v>
       </c>
@@ -16374,10 +16379,10 @@
         <v>999999</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>311</v>
       </c>
@@ -16397,10 +16402,10 @@
         <v>9</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>312</v>
       </c>
@@ -16417,10 +16422,10 @@
         <v>999999</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>313</v>
       </c>
@@ -16440,7 +16445,7 @@
         <v>9</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16460,7 +16465,7 @@
         <v>999999</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16483,7 +16488,7 @@
         <v>9</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16503,7 +16508,7 @@
         <v>999999</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16519,17 +16524,17 @@
       <c r="D239" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="E239" s="11" t="s">
+      <c r="E239" s="4" t="s">
         <v>1320</v>
       </c>
       <c r="F239" s="2">
         <v>9</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>318</v>
       </c>
@@ -16546,10 +16551,10 @@
         <v>999</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>319</v>
       </c>
@@ -16566,10 +16571,10 @@
         <v>999</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>320</v>
       </c>
@@ -16586,10 +16591,10 @@
         <v>999</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>321</v>
       </c>
@@ -16609,10 +16614,10 @@
         <v>9</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>322</v>
       </c>
@@ -16629,10 +16634,10 @@
         <v>999</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>323</v>
       </c>
@@ -16649,10 +16654,10 @@
         <v>999</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>324</v>
       </c>
@@ -16669,7 +16674,7 @@
         <v>999</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16692,7 +16697,7 @@
         <v>9</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -16704,14 +16709,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B82CE-2D39-46F1-9D55-E540BC2F2D45}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16743,10 +16745,10 @@
         <v>1119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16761,7 +16763,7 @@
         <v>9999999999</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16776,7 +16778,7 @@
         <v>9999</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16792,14 +16794,14 @@
       <c r="D4" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1303</v>
+      <c r="E4" s="14" t="s">
+        <v>1733</v>
       </c>
       <c r="F4" s="2">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16822,7 +16824,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16845,7 +16847,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16862,13 +16864,13 @@
         <v>1029</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="F7" s="2">
         <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16884,11 +16886,14 @@
       <c r="D8" s="1" t="s">
         <v>1030</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>1305</v>
+      </c>
       <c r="F8" s="2">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16908,7 +16913,7 @@
         <v>999</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16928,7 +16933,7 @@
         <v>999</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16945,13 +16950,13 @@
         <v>1033</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16971,7 +16976,7 @@
         <v>9999</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16994,7 +16999,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17017,7 +17022,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17025,7 +17030,7 @@
         <v>481</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>1630</v>
@@ -17040,7 +17045,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17063,7 +17068,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17083,7 +17088,7 @@
         <v>1448</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17106,7 +17111,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17129,7 +17134,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17146,13 +17151,13 @@
         <v>1042</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F20" s="2">
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17169,13 +17174,13 @@
         <v>1043</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F21" s="2">
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17192,13 +17197,13 @@
         <v>1044</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F22" s="2">
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17215,13 +17220,13 @@
         <v>1045</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F23" s="2">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17238,13 +17243,13 @@
         <v>1046</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F24" s="2">
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17261,13 +17266,13 @@
         <v>1047</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F25" s="2">
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17284,13 +17289,13 @@
         <v>1048</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F26" s="2">
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17307,13 +17312,13 @@
         <v>1049</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F27" s="2">
         <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17330,13 +17335,13 @@
         <v>1050</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F28" s="2">
         <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17353,13 +17358,13 @@
         <v>1051</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F29" s="2">
         <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17376,13 +17381,13 @@
         <v>1052</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F30" s="2">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17399,13 +17404,13 @@
         <v>1053</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F31" s="2">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17422,13 +17427,13 @@
         <v>1054</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F32" s="2">
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17445,13 +17450,13 @@
         <v>1055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F33" s="2">
         <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17468,13 +17473,13 @@
         <v>1056</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F34" s="2">
         <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17491,13 +17496,13 @@
         <v>1057</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F35" s="2">
         <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17514,13 +17519,13 @@
         <v>1058</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17530,20 +17535,20 @@
       <c r="B37" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="10" t="s">
         <v>1661</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1059</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F37" s="2">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -17553,8 +17558,8 @@
       <c r="B38" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>1759</v>
+      <c r="C38" s="10" t="s">
+        <v>1754</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1060</v>
@@ -17566,7 +17571,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -17576,8 +17581,8 @@
       <c r="B39" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>1760</v>
+      <c r="C39" s="10" t="s">
+        <v>1755</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1061</v>
@@ -17589,7 +17594,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -17599,8 +17604,8 @@
       <c r="B40" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>1761</v>
+      <c r="C40" s="10" t="s">
+        <v>1756</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1062</v>
@@ -17612,7 +17617,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -17622,8 +17627,8 @@
       <c r="B41" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>1762</v>
+      <c r="C41" s="10" t="s">
+        <v>1757</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1063</v>
@@ -17635,7 +17640,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -17645,8 +17650,8 @@
       <c r="B42" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>1763</v>
+      <c r="C42" s="10" t="s">
+        <v>1758</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1064</v>
@@ -17658,7 +17663,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -17668,8 +17673,8 @@
       <c r="B43" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>1764</v>
+      <c r="C43" s="10" t="s">
+        <v>1759</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1065</v>
@@ -17681,7 +17686,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -17691,8 +17696,8 @@
       <c r="B44" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>1765</v>
+      <c r="C44" s="10" t="s">
+        <v>1760</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1066</v>
@@ -17704,7 +17709,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -17714,8 +17719,8 @@
       <c r="B45" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>1766</v>
+      <c r="C45" s="10" t="s">
+        <v>1761</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1067</v>
@@ -17727,7 +17732,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -17737,8 +17742,8 @@
       <c r="B46" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>1767</v>
+      <c r="C46" s="10" t="s">
+        <v>1762</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1068</v>
@@ -17750,7 +17755,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -17760,8 +17765,8 @@
       <c r="B47" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>1768</v>
+      <c r="C47" s="10" t="s">
+        <v>1763</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1069</v>
@@ -17773,7 +17778,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -17783,8 +17788,8 @@
       <c r="B48" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>1769</v>
+      <c r="C48" s="10" t="s">
+        <v>1764</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1070</v>
@@ -17796,7 +17801,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -17806,20 +17811,20 @@
       <c r="B49" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="10" t="s">
         <v>1665</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F49" s="2">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -17836,13 +17841,13 @@
         <v>1072</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F50" s="2">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -17859,13 +17864,13 @@
         <v>1073</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F51" s="2">
         <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -17882,13 +17887,13 @@
         <v>1074</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F52" s="2">
         <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -17905,13 +17910,13 @@
         <v>1075</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F53" s="2">
         <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -17928,13 +17933,13 @@
         <v>1076</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F54" s="2">
         <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -17951,13 +17956,13 @@
         <v>1077</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F55" s="2">
         <v>9</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -17974,13 +17979,13 @@
         <v>1078</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F56" s="2">
         <v>9</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -17997,13 +18002,13 @@
         <v>1079</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F57" s="2">
         <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -18020,13 +18025,13 @@
         <v>1080</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F58" s="2">
         <v>9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -18043,13 +18048,13 @@
         <v>1081</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F59" s="2">
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -18066,13 +18071,13 @@
         <v>1082</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1303</v>
+        <v>1733</v>
       </c>
       <c r="F60" s="2">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -18095,7 +18100,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -18118,7 +18123,7 @@
         <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -18141,7 +18146,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -18164,7 +18169,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -18187,7 +18192,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -18210,7 +18215,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -18233,7 +18238,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -18256,7 +18261,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -18279,7 +18284,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -18302,7 +18307,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -18325,7 +18330,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -18348,7 +18353,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -18368,7 +18373,7 @@
         <v>99</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -18388,7 +18393,7 @@
         <v>99</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -18411,7 +18416,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -18434,7 +18439,7 @@
         <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -18457,7 +18462,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -18480,7 +18485,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -18495,7 +18500,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -18510,7 +18515,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -18525,19 +18530,13 @@
         <v>99</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>545</v>
-      </c>
       <c r="D82" s="1" t="s">
         <v>1101</v>
       </c>
@@ -18545,19 +18544,13 @@
         <v>99</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>546</v>
-      </c>
       <c r="D83" s="1" t="s">
         <v>1102</v>
       </c>
@@ -18565,35 +18558,35 @@
         <v>9999999999</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="F84" s="1">
         <v>999999</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="F85" s="1">
         <v>999999</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -18607,10 +18600,10 @@
         <v>999999</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>442</v>
       </c>
@@ -18621,35 +18614,35 @@
         <v>999999</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="F88" s="2">
         <v>9</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="F89" s="2">
         <v>99</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -18657,7 +18650,7 @@
         <v>547</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>1710</v>
@@ -18669,7 +18662,7 @@
         <v>999999</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -18677,7 +18670,7 @@
         <v>548</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>1711</v>
@@ -18686,13 +18679,13 @@
         <v>1104</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F91" s="2">
         <v>9</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -18700,7 +18693,7 @@
         <v>549</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>1712</v>
@@ -18712,7 +18705,7 @@
         <v>999999</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -18720,7 +18713,7 @@
         <v>550</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>1713</v>
@@ -18729,13 +18722,13 @@
         <v>1106</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F93" s="2">
         <v>9</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -18743,10 +18736,10 @@
         <v>551</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>1794</v>
+        <v>1716</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1107</v>
@@ -18755,7 +18748,7 @@
         <v>999999</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -18763,22 +18756,22 @@
         <v>552</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>1795</v>
+        <v>1716</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>1807</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="F95" s="2">
         <v>9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -18786,10 +18779,10 @@
         <v>553</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>1714</v>
+        <v>1717</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>1808</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>1109</v>
@@ -18798,7 +18791,7 @@
         <v>999999</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -18806,33 +18799,33 @@
         <v>554</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1715</v>
+        <v>1809</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F97" s="2">
         <v>9</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>1793</v>
+      <c r="B98" s="4" t="s">
+        <v>1788</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1716</v>
+        <v>1810</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1111</v>
@@ -18841,53 +18834,53 @@
         <v>999999</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>1793</v>
+      <c r="B99" s="4" t="s">
+        <v>1788</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1717</v>
+        <v>1811</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="F99" s="2">
         <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>1113</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="F100" s="2">
         <v>9</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -18898,7 +18891,7 @@
         <v>1114</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1114</v>
@@ -18907,7 +18900,7 @@
         <v>9999</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
